--- a/Unity/Assets/Config/Excel/LifeShieldConfig.xlsx
+++ b/Unity/Assets/Config/Excel/LifeShieldConfig.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D76586-4778-4D68-A66B-3658E7AA4673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="LifeShieldProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -33,82 +40,16 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">1 潮汐之盾1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">2 潮汐之盾2
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">3 潮汐之盾3
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">4 潮汐之盾4
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">5 潮汐之盾5
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>6 生命之盾</t>
+1 潮汐之盾1
+2 潮汐之盾2
+3 潮汐之盾3
+4 潮汐之盾4
+5 潮汐之盾5
+6 生命之盾
+7 能量之源</t>
         </r>
       </text>
     </comment>
@@ -117,15 +58,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="456">
   <si>
     <t>c</t>
   </si>
@@ -355,6 +296,51 @@
     <t>降低受到玩家普通攻击伤害20%</t>
   </si>
   <si>
+    <t>熔岩之魂21级</t>
+  </si>
+  <si>
+    <t>205703;0.21</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害21%</t>
+  </si>
+  <si>
+    <t>熔岩之魂22级</t>
+  </si>
+  <si>
+    <t>205703;0.22</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害22%</t>
+  </si>
+  <si>
+    <t>熔岩之魂23级</t>
+  </si>
+  <si>
+    <t>205703;0.23</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害23%</t>
+  </si>
+  <si>
+    <t>熔岩之魂24级</t>
+  </si>
+  <si>
+    <t>205703;0.24</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害24%</t>
+  </si>
+  <si>
+    <t>熔岩之魂25级</t>
+  </si>
+  <si>
+    <t>205703;0.25</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害25%</t>
+  </si>
+  <si>
     <t>巨龙之魂1级</t>
   </si>
   <si>
@@ -520,6 +506,36 @@
     <t>降低受到玩家技能伤害20%</t>
   </si>
   <si>
+    <t>205803;0.21</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害21%</t>
+  </si>
+  <si>
+    <t>205803;0.22</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害22%</t>
+  </si>
+  <si>
+    <t>205803;0.23</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害23%</t>
+  </si>
+  <si>
+    <t>205803;0.24</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害24%</t>
+  </si>
+  <si>
+    <t>205803;0.25</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害25%</t>
+  </si>
+  <si>
     <t>独兽之魂1级</t>
   </si>
   <si>
@@ -700,6 +716,51 @@
     <t>降低受到玩家全部伤害10%</t>
   </si>
   <si>
+    <t>独兽之魂21级</t>
+  </si>
+  <si>
+    <t>205903;0.105</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害10.5%</t>
+  </si>
+  <si>
+    <t>独兽之魂22级</t>
+  </si>
+  <si>
+    <t>205903;0.11</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害11%</t>
+  </si>
+  <si>
+    <t>独兽之魂23级</t>
+  </si>
+  <si>
+    <t>205903;0.115</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害11.5%</t>
+  </si>
+  <si>
+    <t>独兽之魂24级</t>
+  </si>
+  <si>
+    <t>205903;0.12</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害12%</t>
+  </si>
+  <si>
+    <t>独兽之魂25级</t>
+  </si>
+  <si>
+    <t>205903;0.125</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害12.5%</t>
+  </si>
+  <si>
     <t>愤怒之魂1级</t>
   </si>
   <si>
@@ -880,6 +941,51 @@
     <t>降低受到玩家暴击概率20%</t>
   </si>
   <si>
+    <t>愤怒之魂21级</t>
+  </si>
+  <si>
+    <t>206003;0.21</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率21%</t>
+  </si>
+  <si>
+    <t>愤怒之魂22级</t>
+  </si>
+  <si>
+    <t>206003;0.22</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率22%</t>
+  </si>
+  <si>
+    <t>愤怒之魂23级</t>
+  </si>
+  <si>
+    <t>206003;0.23</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率23%</t>
+  </si>
+  <si>
+    <t>愤怒之魂24级</t>
+  </si>
+  <si>
+    <t>206003;0.24</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率24%</t>
+  </si>
+  <si>
+    <t>愤怒之魂25级</t>
+  </si>
+  <si>
+    <t>206003;0.25</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率25%</t>
+  </si>
+  <si>
     <t>驱逐之魂1级</t>
   </si>
   <si>
@@ -1060,387 +1166,287 @@
     <t>降低受到玩家命中概率20%</t>
   </si>
   <si>
+    <t>驱逐之魂21级</t>
+  </si>
+  <si>
+    <t>206103;0.21</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率21%</t>
+  </si>
+  <si>
+    <t>驱逐之魂22级</t>
+  </si>
+  <si>
+    <t>206103;0.22</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率22%</t>
+  </si>
+  <si>
+    <t>驱逐之魂23级</t>
+  </si>
+  <si>
+    <t>206103;0.23</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率23%</t>
+  </si>
+  <si>
+    <t>驱逐之魂24级</t>
+  </si>
+  <si>
+    <t>206103;0.24</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率24%</t>
+  </si>
+  <si>
+    <t>驱逐之魂25级</t>
+  </si>
+  <si>
+    <t>206103;0.25</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率25%</t>
+  </si>
+  <si>
     <t>生命之魂1级</t>
   </si>
   <si>
+    <t>100202;0.01@213103;0.01</t>
+  </si>
+  <si>
     <t>生命之魂2级</t>
   </si>
   <si>
+    <t>100202;0.02@213103;0.02</t>
+  </si>
+  <si>
     <t>生命之魂3级</t>
   </si>
   <si>
+    <t>100202;0.03@213103;0.03</t>
+  </si>
+  <si>
     <t>生命之魂4级</t>
   </si>
   <si>
+    <t>100202;0.04@213103;0.04</t>
+  </si>
+  <si>
     <t>生命之魂5级</t>
   </si>
   <si>
+    <t>100202;0.05@213103;0.05</t>
+  </si>
+  <si>
     <t>生命之魂6级</t>
   </si>
   <si>
+    <t>100202;0.06@213103;0.06</t>
+  </si>
+  <si>
     <t>生命之魂7级</t>
   </si>
   <si>
+    <t>100202;0.07@213103;0.07</t>
+  </si>
+  <si>
     <t>生命之魂8级</t>
   </si>
   <si>
+    <t>100202;0.08@213103;0.08</t>
+  </si>
+  <si>
     <t>生命之魂9级</t>
   </si>
   <si>
+    <t>100202;0.09@213103;0.09</t>
+  </si>
+  <si>
     <t>生命之魂10级</t>
   </si>
   <si>
+    <t>100202;0.10@213103;0.1</t>
+  </si>
+  <si>
     <t>生命之魂11级</t>
   </si>
   <si>
+    <t>100202;0.11@213103;0.11</t>
+  </si>
+  <si>
     <t>生命之魂12级</t>
   </si>
   <si>
+    <t>100202;0.12@213103;0.12</t>
+  </si>
+  <si>
     <t>生命之魂13级</t>
   </si>
   <si>
+    <t>100202;0.13@213103;0.13</t>
+  </si>
+  <si>
     <t>生命之魂14级</t>
   </si>
   <si>
+    <t>100202;0.14@213103;0.14</t>
+  </si>
+  <si>
     <t>生命之魂15级</t>
   </si>
   <si>
+    <t>100202;0.15@213103;0.15</t>
+  </si>
+  <si>
     <t>生命之魂16级</t>
   </si>
   <si>
+    <t>100202;0.16@213103;0.16</t>
+  </si>
+  <si>
     <t>生命之魂17级</t>
   </si>
   <si>
+    <t>100202;0.17@213103;0.17</t>
+  </si>
+  <si>
     <t>生命之魂18级</t>
   </si>
   <si>
+    <t>100202;0.18@213103;0.18</t>
+  </si>
+  <si>
     <t>生命之魂19级</t>
   </si>
   <si>
+    <t>100202;0.19@213103;0.19</t>
+  </si>
+  <si>
     <t>生命之魂20级</t>
   </si>
   <si>
-    <t>100202;0.01@213103;0.01</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100202;0.02@213103;0.02</t>
-  </si>
-  <si>
-    <t>100202;0.03@213103;0.03</t>
-  </si>
-  <si>
-    <t>100202;0.04@213103;0.04</t>
-  </si>
-  <si>
-    <t>100202;0.05@213103;0.05</t>
-  </si>
-  <si>
-    <t>100202;0.06@213103;0.06</t>
-  </si>
-  <si>
-    <t>100202;0.07@213103;0.07</t>
-  </si>
-  <si>
-    <t>100202;0.08@213103;0.08</t>
-  </si>
-  <si>
-    <t>100202;0.09@213103;0.09</t>
-  </si>
-  <si>
-    <t>100202;0.10@213103;0.1</t>
-  </si>
-  <si>
-    <t>100202;0.11@213103;0.11</t>
-  </si>
-  <si>
-    <t>100202;0.12@213103;0.12</t>
-  </si>
-  <si>
-    <t>100202;0.13@213103;0.13</t>
-  </si>
-  <si>
-    <t>100202;0.14@213103;0.14</t>
-  </si>
-  <si>
-    <t>100202;0.15@213103;0.15</t>
-  </si>
-  <si>
-    <t>100202;0.16@213103;0.16</t>
-  </si>
-  <si>
-    <t>100202;0.17@213103;0.17</t>
-  </si>
-  <si>
-    <t>100202;0.18@213103;0.18</t>
-  </si>
-  <si>
-    <t>100202;0.19@213103;0.19</t>
-  </si>
-  <si>
-    <t>熔岩之魂21级</t>
-  </si>
-  <si>
-    <t>熔岩之魂22级</t>
-  </si>
-  <si>
-    <t>熔岩之魂23级</t>
-  </si>
-  <si>
-    <t>熔岩之魂24级</t>
-  </si>
-  <si>
-    <t>熔岩之魂25级</t>
-  </si>
-  <si>
-    <t>降低受到玩家普通攻击伤害21%</t>
-  </si>
-  <si>
-    <t>降低受到玩家普通攻击伤害22%</t>
-  </si>
-  <si>
-    <t>降低受到玩家普通攻击伤害23%</t>
-  </si>
-  <si>
-    <t>降低受到玩家普通攻击伤害24%</t>
-  </si>
-  <si>
-    <t>降低受到玩家普通攻击伤害25%</t>
-  </si>
-  <si>
-    <t>205703;0.21</t>
-  </si>
-  <si>
-    <t>205703;0.22</t>
-  </si>
-  <si>
-    <t>205703;0.23</t>
-  </si>
-  <si>
-    <t>205703;0.24</t>
-  </si>
-  <si>
-    <t>205703;0.25</t>
-  </si>
-  <si>
-    <t>205803;0.21</t>
-  </si>
-  <si>
-    <t>205803;0.22</t>
-  </si>
-  <si>
-    <t>205803;0.23</t>
-  </si>
-  <si>
-    <t>205803;0.24</t>
-  </si>
-  <si>
-    <t>205803;0.25</t>
-  </si>
-  <si>
-    <t>降低受到玩家技能伤害21%</t>
-  </si>
-  <si>
-    <t>降低受到玩家技能伤害22%</t>
-  </si>
-  <si>
-    <t>降低受到玩家技能伤害23%</t>
-  </si>
-  <si>
-    <t>降低受到玩家技能伤害24%</t>
-  </si>
-  <si>
-    <t>降低受到玩家技能伤害25%</t>
-  </si>
-  <si>
-    <t>205903;0.105</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>205903;0.11</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>205903;0.115</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>205903;0.12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>205903;0.125</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低受到玩家全部伤害11%</t>
-  </si>
-  <si>
-    <t>降低受到玩家全部伤害10.5%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低受到玩家全部伤害11.5%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低受到玩家全部伤害12%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低受到玩家全部伤害12.5%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>独兽之魂21级</t>
-  </si>
-  <si>
-    <t>独兽之魂22级</t>
-  </si>
-  <si>
-    <t>独兽之魂23级</t>
-  </si>
-  <si>
-    <t>独兽之魂24级</t>
-  </si>
-  <si>
-    <t>独兽之魂25级</t>
-  </si>
-  <si>
-    <t>206003;0.21</t>
-  </si>
-  <si>
-    <t>206003;0.22</t>
-  </si>
-  <si>
-    <t>206003;0.23</t>
-  </si>
-  <si>
-    <t>206003;0.24</t>
-  </si>
-  <si>
-    <t>206003;0.25</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率21%</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率22%</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率23%</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率24%</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率25%</t>
-  </si>
-  <si>
-    <t>愤怒之魂21级</t>
-  </si>
-  <si>
-    <t>愤怒之魂22级</t>
-  </si>
-  <si>
-    <t>愤怒之魂23级</t>
-  </si>
-  <si>
-    <t>愤怒之魂24级</t>
-  </si>
-  <si>
-    <t>愤怒之魂25级</t>
-  </si>
-  <si>
-    <t>206103;0.21</t>
-  </si>
-  <si>
-    <t>206103;0.22</t>
-  </si>
-  <si>
-    <t>206103;0.23</t>
-  </si>
-  <si>
-    <t>206103;0.24</t>
-  </si>
-  <si>
-    <t>206103;0.25</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率21%</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率22%</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率23%</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率24%</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率25%</t>
-  </si>
-  <si>
-    <t>驱逐之魂21级</t>
-  </si>
-  <si>
-    <t>驱逐之魂22级</t>
-  </si>
-  <si>
-    <t>驱逐之魂23级</t>
-  </si>
-  <si>
-    <t>驱逐之魂24级</t>
-  </si>
-  <si>
-    <t>驱逐之魂25级</t>
+    <t>100202;0.20@213103;0.20</t>
   </si>
   <si>
     <t>生命之魂21级</t>
   </si>
   <si>
+    <t>100202;0.21@213103;0.21</t>
+  </si>
+  <si>
     <t>生命之魂22级</t>
   </si>
   <si>
+    <t>100202;0.22@213103;0.22</t>
+  </si>
+  <si>
     <t>生命之魂23级</t>
   </si>
   <si>
+    <t>100202;0.23@213103;0.23</t>
+  </si>
+  <si>
     <t>生命之魂24级</t>
   </si>
   <si>
+    <t>100202;0.24@213103;0.24</t>
+  </si>
+  <si>
     <t>生命之魂25级</t>
   </si>
   <si>
     <t>100202;0.25@213103;0.25</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100202;0.24@213103;0.24</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100202;0.23@213103;0.23</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100202;0.22@213103;0.22</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100202;0.21@213103;0.21</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100202;0.20@213103;0.20</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量之源1级</t>
+  </si>
+  <si>
+    <t>能量之源2级</t>
+  </si>
+  <si>
+    <t>能量之源3级</t>
+  </si>
+  <si>
+    <t>能量之源4级</t>
+  </si>
+  <si>
+    <t>能量之源5级</t>
+  </si>
+  <si>
+    <t>能量之源6级</t>
+  </si>
+  <si>
+    <t>能量之源7级</t>
+  </si>
+  <si>
+    <t>能量之源8级</t>
+  </si>
+  <si>
+    <t>能量之源9级</t>
+  </si>
+  <si>
+    <t>能量之源10级</t>
+  </si>
+  <si>
+    <t>能量之源11级</t>
+  </si>
+  <si>
+    <t>能量之源12级</t>
+  </si>
+  <si>
+    <t>能量之源13级</t>
+  </si>
+  <si>
+    <t>能量之源14级</t>
+  </si>
+  <si>
+    <t>能量之源15级</t>
+  </si>
+  <si>
+    <t>能量之源16级</t>
+  </si>
+  <si>
+    <t>能量之源17级</t>
+  </si>
+  <si>
+    <t>能量之源18级</t>
+  </si>
+  <si>
+    <t>能量之源19级</t>
+  </si>
+  <si>
+    <t>能量之源20级</t>
+  </si>
+  <si>
+    <t>能量之源21级</t>
+  </si>
+  <si>
+    <t>能量之源22级</t>
+  </si>
+  <si>
+    <t>能量之源23级</t>
+  </si>
+  <si>
+    <t>能量之源24级</t>
+  </si>
+  <si>
+    <t>能量之源25级</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1452,14 +1458,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1467,15 +1471,157 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1483,25 +1629,17 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="17">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1516,49 +1654,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1498458815271462"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79985961485641044"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641044"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79985961485641044"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79985961485641044"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.149845881527146"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1570,36 +1666,264 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641044"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79985961485641044"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1657,7 +1981,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1676,935 +2000,1162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="313">
+  <cellStyleXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2630,325 +3181,373 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="313">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="26" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="35" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="28" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="20" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="18" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="22" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="23" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+  <cellStyles count="361">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
-    <cellStyle name="常规 2 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="常规 2 3" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="常规 2 3 2" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="常规 2 3 2 4" xfId="24" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="常规 2 3 2 5" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="常规 2 3 2 6" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="常规 2 3 2 7" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="常规 2 3 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="常规 2 3 3 2" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="常规 2 3 3 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="常规 2 3 3 4" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
-    <cellStyle name="常规 2 3 3 5" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
-    <cellStyle name="常规 2 3 3 6" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
-    <cellStyle name="常规 2 3 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="常规 2 3 4 2" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="常规 2 3 4 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="常规 2 3 5" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="常规 2 3 5 2" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="常规 2 3 6" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="常规 2 3 6 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="常规 2 3 7" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
-    <cellStyle name="常规 2 3 8" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
-    <cellStyle name="常规 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="常规 4" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="常规 5" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="常规 5 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="常规 5 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="常规 5 2 2 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="常规 5 2 2 3" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="常规 5 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="常规 5 2 3 2" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
-    <cellStyle name="常规 5 2 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="常规 5 2 4 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
-    <cellStyle name="常规 5 2 5" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="常规 5 2 6" xfId="14" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="常规 5 3" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
-    <cellStyle name="常规 5 3 2" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
-    <cellStyle name="常规 5 3 3" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
-    <cellStyle name="常规 5 4" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
-    <cellStyle name="常规 5 4 2" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
-    <cellStyle name="常规 5 5" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
-    <cellStyle name="常规 5 5 2" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
-    <cellStyle name="常规 5 6" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="常规 5 7" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="注释 2" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="注释 2 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
-    <cellStyle name="注释 2 2 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
-    <cellStyle name="注释 2 2 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
-    <cellStyle name="注释 2 2 2 3" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
-    <cellStyle name="注释 2 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
-    <cellStyle name="注释 2 2 3 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="注释 2 2 4" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
-    <cellStyle name="注释 2 2 4 2" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
-    <cellStyle name="注释 2 2 5" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
-    <cellStyle name="注释 2 2 6" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
-    <cellStyle name="注释 2 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="注释 2 3 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="注释 2 3 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="注释 2 4" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
-    <cellStyle name="注释 2 4 2" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
-    <cellStyle name="注释 2 5" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="注释 2 5 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
-    <cellStyle name="注释 2 6" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
-    <cellStyle name="注释 2 7" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="50"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="51"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="52"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="53"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="54"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="55"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="56"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="57"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="58"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="59"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="60"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="62"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="63"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="64"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="65"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="66"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="67"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="68"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="69"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="70"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="71"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="72"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="73"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="74"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="75"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="76"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="77"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="78"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="79"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="80"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="81"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="82"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="83"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="84"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="85"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="86"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="87"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="88"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="89"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="90"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="91"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="92"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="93"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="94"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="95"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="96"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="97"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="98"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="99"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="100"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="101"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="102"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="103"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="104"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="105"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="106"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="107"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="108"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="109"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="111"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="112"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="113"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="114"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="115"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="117"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="118"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="119"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="121"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="122"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="124"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="125"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="126"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="127"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="128"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="129"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="130"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="131"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="132"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="133"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="134"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="135"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="136"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="137"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="138"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="139"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="140"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="141"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="142"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="143"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="144"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="145"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="146"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="147"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="148"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="149"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="150"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="151"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="152"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="153"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="154"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="155"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="156"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="157"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="158"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="159"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="160"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="161"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="162"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="163"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="164"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="165"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="166"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="167"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="168"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="169"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="170"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="171"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="172"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="173"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="174"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="175"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="176"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="177"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="178"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="179"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="180"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="181"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="182"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="183"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="184"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="185"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="186"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="187"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="188"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="189"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="190"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="191"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="192"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="193"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="194"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="195"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="196"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="197"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="198"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="199"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="200"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="201"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="202"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="203"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="204"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="205"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="206"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="207"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="208"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="209"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="210"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="211"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="212"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="213"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="214"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="215"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="216"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="217"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="218"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="219"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="220"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="221"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="222"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="224"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="225"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="226"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="227"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="228"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="229"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="230"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="231"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="232"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="233"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="234"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="235"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="236"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="237"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="238"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="239"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="240"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="241"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="242"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="243"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="244"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="245"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="246"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="247"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="248"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="249"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="250"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="251"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="252"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="253"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="254"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="255"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="256"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="257"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="258"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="259"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="260"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="261"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="262"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="263"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="264"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="265"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="266"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="267"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="268"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="269"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="270"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="271"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="272"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="273"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="274"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="275"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="276"/>
+    <cellStyle name="常规 2" xfId="277"/>
+    <cellStyle name="常规 2 2" xfId="278"/>
+    <cellStyle name="常规 2 3" xfId="279"/>
+    <cellStyle name="常规 2 3 2" xfId="280"/>
+    <cellStyle name="常规 2 3 2 2" xfId="281"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="282"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="283"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="284"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="285"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="286"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="287"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="288"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="289"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="290"/>
+    <cellStyle name="常规 2 3 2 3" xfId="291"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="292"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="293"/>
+    <cellStyle name="常规 2 3 2 4" xfId="294"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="295"/>
+    <cellStyle name="常规 2 3 2 5" xfId="296"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="297"/>
+    <cellStyle name="常规 2 3 2 6" xfId="298"/>
+    <cellStyle name="常规 2 3 2 7" xfId="299"/>
+    <cellStyle name="常规 2 3 3" xfId="300"/>
+    <cellStyle name="常规 2 3 3 2" xfId="301"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="302"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="303"/>
+    <cellStyle name="常规 2 3 3 3" xfId="304"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="305"/>
+    <cellStyle name="常规 2 3 3 4" xfId="306"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="307"/>
+    <cellStyle name="常规 2 3 3 5" xfId="308"/>
+    <cellStyle name="常规 2 3 3 6" xfId="309"/>
+    <cellStyle name="常规 2 3 4" xfId="310"/>
+    <cellStyle name="常规 2 3 4 2" xfId="311"/>
+    <cellStyle name="常规 2 3 4 3" xfId="312"/>
+    <cellStyle name="常规 2 3 5" xfId="313"/>
+    <cellStyle name="常规 2 3 5 2" xfId="314"/>
+    <cellStyle name="常规 2 3 6" xfId="315"/>
+    <cellStyle name="常规 2 3 6 2" xfId="316"/>
+    <cellStyle name="常规 2 3 7" xfId="317"/>
+    <cellStyle name="常规 2 3 8" xfId="318"/>
+    <cellStyle name="常规 3" xfId="319"/>
+    <cellStyle name="常规 4" xfId="320"/>
+    <cellStyle name="常规 5" xfId="321"/>
+    <cellStyle name="常规 5 2" xfId="322"/>
+    <cellStyle name="常规 5 2 2" xfId="323"/>
+    <cellStyle name="常规 5 2 2 2" xfId="324"/>
+    <cellStyle name="常规 5 2 2 3" xfId="325"/>
+    <cellStyle name="常规 5 2 3" xfId="326"/>
+    <cellStyle name="常规 5 2 3 2" xfId="327"/>
+    <cellStyle name="常规 5 2 4" xfId="328"/>
+    <cellStyle name="常规 5 2 4 2" xfId="329"/>
+    <cellStyle name="常规 5 2 5" xfId="330"/>
+    <cellStyle name="常规 5 2 6" xfId="331"/>
+    <cellStyle name="常规 5 3" xfId="332"/>
+    <cellStyle name="常规 5 3 2" xfId="333"/>
+    <cellStyle name="常规 5 3 3" xfId="334"/>
+    <cellStyle name="常规 5 4" xfId="335"/>
+    <cellStyle name="常规 5 4 2" xfId="336"/>
+    <cellStyle name="常规 5 5" xfId="337"/>
+    <cellStyle name="常规 5 5 2" xfId="338"/>
+    <cellStyle name="常规 5 6" xfId="339"/>
+    <cellStyle name="常规 5 7" xfId="340"/>
+    <cellStyle name="注释 2" xfId="341"/>
+    <cellStyle name="注释 2 2" xfId="342"/>
+    <cellStyle name="注释 2 2 2" xfId="343"/>
+    <cellStyle name="注释 2 2 2 2" xfId="344"/>
+    <cellStyle name="注释 2 2 2 3" xfId="345"/>
+    <cellStyle name="注释 2 2 3" xfId="346"/>
+    <cellStyle name="注释 2 2 3 2" xfId="347"/>
+    <cellStyle name="注释 2 2 4" xfId="348"/>
+    <cellStyle name="注释 2 2 4 2" xfId="349"/>
+    <cellStyle name="注释 2 2 5" xfId="350"/>
+    <cellStyle name="注释 2 2 6" xfId="351"/>
+    <cellStyle name="注释 2 3" xfId="352"/>
+    <cellStyle name="注释 2 3 2" xfId="353"/>
+    <cellStyle name="注释 2 3 3" xfId="354"/>
+    <cellStyle name="注释 2 4" xfId="355"/>
+    <cellStyle name="注释 2 4 2" xfId="356"/>
+    <cellStyle name="注释 2 5" xfId="357"/>
+    <cellStyle name="注释 2 5 2" xfId="358"/>
+    <cellStyle name="注释 2 6" xfId="359"/>
+    <cellStyle name="注释 2 7" xfId="360"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
@@ -2968,7 +3567,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{E3FFE3DE-EA4A-4886-8DB2-72FB2AADE07C}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2976,9 +3575,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3008,25 +3604,25 @@
     </xsd:schema>
   </Schema>
   <Map ID="1" Name="DateArea_映射" RootElement="DateArea" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+    <DataBinding ConnectionID="1" FileBinding="true" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:I155" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C3:I155" totalsRowShown="0">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id">
+    <tableColumn id="1" name="Id">
       <calculatedColumnFormula>C3+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="生命之盾类型"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="名字"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="等级">
+    <tableColumn id="2" name="生命之盾类型"/>
+    <tableColumn id="3" name="名字"/>
+    <tableColumn id="4" name="等级">
       <calculatedColumnFormula>F3+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="生命之盾经验"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="额外属性"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="额外描述">
+    <tableColumn id="5" name="生命之盾经验"/>
+    <tableColumn id="6" name="额外属性"/>
+    <tableColumn id="7" name="额外描述">
       <calculatedColumnFormula>"生命上限提升+"&amp;F4&amp;"%,眩晕抵抗概率+"&amp;F4&amp;"%"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3313,19 +3909,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:M155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:M180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="I159" sqref="I159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="7" width="28.875" customWidth="1"/>
@@ -3333,13 +3929,13 @@
     <col min="9" max="9" width="33.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1" spans="9:9">
       <c r="I2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3362,7 +3958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3385,7 +3981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
@@ -3408,7 +4004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C6" s="5">
         <v>1001</v>
       </c>
@@ -3431,7 +4027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C7" s="5">
         <v>1002</v>
       </c>
@@ -3454,7 +4050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C8" s="5">
         <v>1003</v>
       </c>
@@ -3477,7 +4073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C9" s="5">
         <v>1004</v>
       </c>
@@ -3500,7 +4096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C10" s="5">
         <v>1005</v>
       </c>
@@ -3523,7 +4119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C11" s="5">
         <v>1006</v>
       </c>
@@ -3546,7 +4142,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C12" s="5">
         <v>1007</v>
       </c>
@@ -3569,7 +4165,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C13" s="5">
         <v>1008</v>
       </c>
@@ -3592,7 +4188,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C14" s="5">
         <v>1009</v>
       </c>
@@ -3615,7 +4211,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C15" s="5">
         <v>1010</v>
       </c>
@@ -3638,7 +4234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C16" s="5">
         <v>1011</v>
       </c>
@@ -3661,7 +4257,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C17" s="5">
         <v>1012</v>
       </c>
@@ -3684,7 +4280,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C18" s="5">
         <v>1013</v>
       </c>
@@ -3707,7 +4303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C19" s="5">
         <v>1014</v>
       </c>
@@ -3730,7 +4326,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C20" s="5">
         <v>1015</v>
       </c>
@@ -3753,7 +4349,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C21" s="5">
         <f>C20+1</f>
         <v>1016</v>
@@ -3778,7 +4374,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C22" s="5">
         <f t="shared" ref="C22:C30" si="0">C21+1</f>
         <v>1017</v>
@@ -3803,7 +4399,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>1018</v>
@@ -3828,7 +4424,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C24" s="5">
         <f t="shared" si="0"/>
         <v>1019</v>
@@ -3853,7 +4449,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>1020</v>
@@ -3878,7 +4474,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C26" s="5">
         <f t="shared" si="0"/>
         <v>1021</v>
@@ -3887,23 +4483,23 @@
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="F26" s="5">
-        <f>F25+1</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="G26" s="5">
         <v>520000</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C27" s="5">
         <f t="shared" si="0"/>
         <v>1022</v>
@@ -3912,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="1"/>
@@ -3922,13 +4518,13 @@
         <v>600000</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C28" s="5">
         <f t="shared" si="0"/>
         <v>1023</v>
@@ -3937,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>352</v>
+        <v>82</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="1"/>
@@ -3947,13 +4543,13 @@
         <v>680000</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>362</v>
+        <v>83</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C29" s="5">
         <f t="shared" si="0"/>
         <v>1024</v>
@@ -3962,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>353</v>
+        <v>85</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="1"/>
@@ -3972,13 +4568,13 @@
         <v>760000</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>363</v>
+        <v>86</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C30" s="5">
         <f t="shared" si="0"/>
         <v>1025</v>
@@ -3987,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>354</v>
+        <v>88</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="1"/>
@@ -3997,13 +4593,13 @@
         <v>850000</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>364</v>
+        <v>89</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C31" s="5">
         <v>2001</v>
       </c>
@@ -4011,7 +4607,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F31" s="5">
         <v>1</v>
@@ -4020,13 +4616,13 @@
         <v>3000</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C32" s="5">
         <v>2002</v>
       </c>
@@ -4034,7 +4630,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F32" s="5">
         <v>2</v>
@@ -4043,13 +4639,13 @@
         <v>6000</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C33" s="5">
         <v>2003</v>
       </c>
@@ -4057,7 +4653,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F33" s="5">
         <v>3</v>
@@ -4066,13 +4662,13 @@
         <v>10000</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C34" s="5">
         <v>2004</v>
       </c>
@@ -4080,7 +4676,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F34" s="5">
         <v>4</v>
@@ -4089,13 +4685,13 @@
         <v>15000</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C35" s="5">
         <v>2005</v>
       </c>
@@ -4103,7 +4699,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F35" s="5">
         <v>5</v>
@@ -4112,13 +4708,13 @@
         <v>22500</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C36" s="5">
         <v>2006</v>
       </c>
@@ -4126,7 +4722,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F36" s="5">
         <v>6</v>
@@ -4135,13 +4731,13 @@
         <v>32500</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C37" s="5">
         <v>2007</v>
       </c>
@@ -4149,7 +4745,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F37" s="5">
         <v>7</v>
@@ -4158,13 +4754,13 @@
         <v>45000</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C38" s="5">
         <v>2008</v>
       </c>
@@ -4172,7 +4768,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F38" s="5">
         <v>8</v>
@@ -4181,13 +4777,13 @@
         <v>60000</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C39" s="5">
         <v>2009</v>
       </c>
@@ -4195,7 +4791,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F39" s="5">
         <v>9</v>
@@ -4204,13 +4800,13 @@
         <v>80000</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C40" s="5">
         <v>2010</v>
       </c>
@@ -4218,7 +4814,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F40" s="5">
         <v>10</v>
@@ -4227,13 +4823,13 @@
         <v>100000</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C41" s="5">
         <v>2011</v>
       </c>
@@ -4241,7 +4837,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F41" s="5">
         <v>11</v>
@@ -4250,13 +4846,13 @@
         <v>120000</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C42" s="5">
         <v>2012</v>
       </c>
@@ -4264,7 +4860,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="F42" s="5">
         <v>12</v>
@@ -4273,13 +4869,13 @@
         <v>140000</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C43" s="5">
         <v>2013</v>
       </c>
@@ -4287,7 +4883,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="F43" s="5">
         <v>13</v>
@@ -4296,13 +4892,13 @@
         <v>160000</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C44" s="5">
         <v>2014</v>
       </c>
@@ -4310,7 +4906,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F44" s="5">
         <v>14</v>
@@ -4319,13 +4915,13 @@
         <v>180000</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C45" s="5">
         <v>2015</v>
       </c>
@@ -4333,7 +4929,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F45" s="5">
         <v>15</v>
@@ -4342,13 +4938,13 @@
         <v>200000</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C46" s="5">
         <f>C45+1</f>
         <v>2016</v>
@@ -4367,13 +4963,13 @@
         <v>230000</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C47" s="5">
         <f t="shared" ref="C47:C55" si="2">C46+1</f>
         <v>2017</v>
@@ -4392,13 +4988,13 @@
         <v>270000</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C48" s="5">
         <f t="shared" si="2"/>
         <v>2018</v>
@@ -4417,13 +5013,13 @@
         <v>320000</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C49" s="5">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -4442,13 +5038,13 @@
         <v>380000</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C50" s="5">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -4467,13 +5063,13 @@
         <v>450000</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C51" s="5">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -4482,23 +5078,23 @@
         <v>2</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="F51" s="5">
-        <f>F50+1</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="G51" s="5">
         <v>520000</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>365</v>
+        <v>146</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C52" s="5">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -4507,7 +5103,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="F52" s="5">
         <f t="shared" si="3"/>
@@ -4517,13 +5113,13 @@
         <v>600000</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>366</v>
+        <v>148</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="53" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C53" s="5">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -4532,7 +5128,7 @@
         <v>2</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>352</v>
+        <v>82</v>
       </c>
       <c r="F53" s="5">
         <f t="shared" si="3"/>
@@ -4542,13 +5138,13 @@
         <v>680000</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>367</v>
+        <v>150</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C54" s="5">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -4557,7 +5153,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>353</v>
+        <v>85</v>
       </c>
       <c r="F54" s="5">
         <f t="shared" si="3"/>
@@ -4567,13 +5163,13 @@
         <v>760000</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>368</v>
+        <v>152</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C55" s="5">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -4582,7 +5178,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>354</v>
+        <v>88</v>
       </c>
       <c r="F55" s="5">
         <f t="shared" si="3"/>
@@ -4592,13 +5188,13 @@
         <v>850000</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>369</v>
+        <v>154</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="56" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C56" s="5">
         <v>3001</v>
       </c>
@@ -4606,7 +5202,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="F56" s="5">
         <v>1</v>
@@ -4615,13 +5211,13 @@
         <v>3000</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C57" s="5">
         <v>3002</v>
       </c>
@@ -4629,7 +5225,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="F57" s="5">
         <v>2</v>
@@ -4638,13 +5234,13 @@
         <v>6000</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C58" s="5">
         <v>3003</v>
       </c>
@@ -4652,7 +5248,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="F58" s="5">
         <v>3</v>
@@ -4661,13 +5257,13 @@
         <v>10000</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C59" s="5">
         <v>3004</v>
       </c>
@@ -4675,7 +5271,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="F59" s="5">
         <v>4</v>
@@ -4684,13 +5280,13 @@
         <v>15000</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="60" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C60" s="5">
         <v>3005</v>
       </c>
@@ -4698,7 +5294,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="F60" s="5">
         <v>5</v>
@@ -4707,13 +5303,13 @@
         <v>22500</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C61" s="5">
         <v>3006</v>
       </c>
@@ -4721,7 +5317,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="F61" s="5">
         <v>6</v>
@@ -4730,13 +5326,13 @@
         <v>32500</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C62" s="5">
         <v>3007</v>
       </c>
@@ -4744,7 +5340,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="F62" s="5">
         <v>7</v>
@@ -4753,13 +5349,13 @@
         <v>45000</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="63" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C63" s="5">
         <v>3008</v>
       </c>
@@ -4767,7 +5363,7 @@
         <v>3</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="F63" s="5">
         <v>8</v>
@@ -4776,13 +5372,13 @@
         <v>60000</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C64" s="5">
         <v>3009</v>
       </c>
@@ -4790,7 +5386,7 @@
         <v>3</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="F64" s="5">
         <v>9</v>
@@ -4799,13 +5395,13 @@
         <v>80000</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="65" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C65" s="5">
         <v>3010</v>
       </c>
@@ -4813,7 +5409,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="F65" s="5">
         <v>10</v>
@@ -4822,13 +5418,13 @@
         <v>100000</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C66" s="5">
         <v>3011</v>
       </c>
@@ -4836,7 +5432,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="F66" s="5">
         <v>11</v>
@@ -4845,13 +5441,13 @@
         <v>120000</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="67" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C67" s="5">
         <v>3012</v>
       </c>
@@ -4859,7 +5455,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="F67" s="5">
         <v>12</v>
@@ -4868,13 +5464,13 @@
         <v>140000</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C68" s="5">
         <v>3013</v>
       </c>
@@ -4882,7 +5478,7 @@
         <v>3</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="F68" s="5">
         <v>13</v>
@@ -4891,13 +5487,13 @@
         <v>160000</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="69" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C69" s="5">
         <v>3014</v>
       </c>
@@ -4905,7 +5501,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="F69" s="5">
         <v>14</v>
@@ -4914,13 +5510,13 @@
         <v>180000</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="70" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C70" s="5">
         <v>3015</v>
       </c>
@@ -4928,7 +5524,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="F70" s="5">
         <v>15</v>
@@ -4937,13 +5533,13 @@
         <v>200000</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="71" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C71" s="5">
         <f>C70+1</f>
         <v>3016</v>
@@ -4952,7 +5548,7 @@
         <v>3</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="F71" s="5">
         <f>F70+1</f>
@@ -4962,13 +5558,13 @@
         <v>230000</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="72" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C72" s="5">
         <f t="shared" ref="C72:C80" si="4">C71+1</f>
         <v>3017</v>
@@ -4977,7 +5573,7 @@
         <v>3</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="F72" s="5">
         <f t="shared" ref="F72:F80" si="5">F71+1</f>
@@ -4987,13 +5583,13 @@
         <v>270000</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="73" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C73" s="5">
         <f t="shared" si="4"/>
         <v>3018</v>
@@ -5002,7 +5598,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="F73" s="5">
         <f t="shared" si="5"/>
@@ -5012,13 +5608,13 @@
         <v>320000</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="74" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C74" s="5">
         <f t="shared" si="4"/>
         <v>3019</v>
@@ -5027,7 +5623,7 @@
         <v>3</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="F74" s="5">
         <f t="shared" si="5"/>
@@ -5037,13 +5633,13 @@
         <v>380000</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C75" s="5">
         <f t="shared" si="4"/>
         <v>3020</v>
@@ -5052,7 +5648,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="F75" s="5">
         <f t="shared" si="5"/>
@@ -5062,38 +5658,38 @@
         <v>450000</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C76" s="5">
-        <f>C75+1</f>
+        <f t="shared" si="4"/>
         <v>3021</v>
       </c>
       <c r="D76" s="5">
         <v>3</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>385</v>
+        <v>216</v>
       </c>
       <c r="F76" s="5">
-        <f>F75+1</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="G76" s="5">
         <v>520000</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>375</v>
+        <v>217</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="77" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C77" s="5">
         <f t="shared" si="4"/>
         <v>3022</v>
@@ -5102,7 +5698,7 @@
         <v>3</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>386</v>
+        <v>219</v>
       </c>
       <c r="F77" s="5">
         <f t="shared" si="5"/>
@@ -5112,13 +5708,13 @@
         <v>600000</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>376</v>
+        <v>220</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="78" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C78" s="5">
         <f t="shared" si="4"/>
         <v>3023</v>
@@ -5127,7 +5723,7 @@
         <v>3</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>387</v>
+        <v>222</v>
       </c>
       <c r="F78" s="5">
         <f t="shared" si="5"/>
@@ -5137,13 +5733,13 @@
         <v>680000</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>377</v>
+        <v>223</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="79" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C79" s="5">
         <f t="shared" si="4"/>
         <v>3024</v>
@@ -5152,7 +5748,7 @@
         <v>3</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>388</v>
+        <v>225</v>
       </c>
       <c r="F79" s="5">
         <f t="shared" si="5"/>
@@ -5162,13 +5758,13 @@
         <v>760000</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>378</v>
+        <v>226</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="80" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C80" s="5">
         <f t="shared" si="4"/>
         <v>3025</v>
@@ -5177,7 +5773,7 @@
         <v>3</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>389</v>
+        <v>228</v>
       </c>
       <c r="F80" s="5">
         <f t="shared" si="5"/>
@@ -5187,13 +5783,13 @@
         <v>850000</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>379</v>
+        <v>229</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="81" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C81" s="5">
         <v>4001</v>
       </c>
@@ -5201,7 +5797,7 @@
         <v>4</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="F81" s="5">
         <v>1</v>
@@ -5210,13 +5806,13 @@
         <v>3000</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="82" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C82" s="5">
         <v>4002</v>
       </c>
@@ -5224,7 +5820,7 @@
         <v>4</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="F82" s="5">
         <v>2</v>
@@ -5233,13 +5829,13 @@
         <v>6000</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="83" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C83" s="5">
         <v>4003</v>
       </c>
@@ -5247,7 +5843,7 @@
         <v>4</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="F83" s="5">
         <v>3</v>
@@ -5256,13 +5852,13 @@
         <v>10000</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="84" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C84" s="5">
         <v>4004</v>
       </c>
@@ -5270,7 +5866,7 @@
         <v>4</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F84" s="5">
         <v>4</v>
@@ -5279,13 +5875,13 @@
         <v>15000</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="85" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="85" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C85" s="5">
         <v>4005</v>
       </c>
@@ -5293,7 +5889,7 @@
         <v>4</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="F85" s="5">
         <v>5</v>
@@ -5302,13 +5898,13 @@
         <v>22500</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="86" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C86" s="5">
         <v>4006</v>
       </c>
@@ -5316,7 +5912,7 @@
         <v>4</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="F86" s="5">
         <v>6</v>
@@ -5325,13 +5921,13 @@
         <v>32500</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="87" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="87" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C87" s="5">
         <v>4007</v>
       </c>
@@ -5339,7 +5935,7 @@
         <v>4</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="F87" s="5">
         <v>7</v>
@@ -5348,13 +5944,13 @@
         <v>45000</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="88" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C88" s="5">
         <v>4008</v>
       </c>
@@ -5362,7 +5958,7 @@
         <v>4</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="F88" s="5">
         <v>8</v>
@@ -5371,13 +5967,13 @@
         <v>60000</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="89" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C89" s="5">
         <v>4009</v>
       </c>
@@ -5385,7 +5981,7 @@
         <v>4</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="F89" s="5">
         <v>9</v>
@@ -5394,13 +5990,13 @@
         <v>80000</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="90" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C90" s="5">
         <v>4010</v>
       </c>
@@ -5408,7 +6004,7 @@
         <v>4</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="F90" s="5">
         <v>10</v>
@@ -5417,13 +6013,13 @@
         <v>100000</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="91" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C91" s="5">
         <v>4011</v>
       </c>
@@ -5431,7 +6027,7 @@
         <v>4</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="F91" s="5">
         <v>11</v>
@@ -5440,13 +6036,13 @@
         <v>120000</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="92" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C92" s="5">
         <v>4012</v>
       </c>
@@ -5454,7 +6050,7 @@
         <v>4</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="F92" s="5">
         <v>12</v>
@@ -5463,13 +6059,13 @@
         <v>140000</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="93" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C93" s="5">
         <v>4013</v>
       </c>
@@ -5477,7 +6073,7 @@
         <v>4</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="F93" s="5">
         <v>13</v>
@@ -5486,13 +6082,13 @@
         <v>160000</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="94" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="94" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C94" s="5">
         <v>4014</v>
       </c>
@@ -5500,7 +6096,7 @@
         <v>4</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="F94" s="5">
         <v>14</v>
@@ -5509,13 +6105,13 @@
         <v>180000</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="95" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="95" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C95" s="5">
         <v>4015</v>
       </c>
@@ -5523,7 +6119,7 @@
         <v>4</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="F95" s="5">
         <v>15</v>
@@ -5532,13 +6128,13 @@
         <v>200000</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="96" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="96" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C96" s="5">
         <f>C95+1</f>
         <v>4016</v>
@@ -5547,7 +6143,7 @@
         <v>4</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="F96" s="5">
         <f>F95+1</f>
@@ -5557,13 +6153,13 @@
         <v>230000</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="97" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C97" s="5">
         <f t="shared" ref="C97:C105" si="6">C96+1</f>
         <v>4017</v>
@@ -5572,7 +6168,7 @@
         <v>4</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="F97" s="5">
         <f t="shared" ref="F97:F105" si="7">F96+1</f>
@@ -5582,13 +6178,13 @@
         <v>270000</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="98" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C98" s="5">
         <f t="shared" si="6"/>
         <v>4018</v>
@@ -5597,7 +6193,7 @@
         <v>4</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="F98" s="5">
         <f t="shared" si="7"/>
@@ -5607,13 +6203,13 @@
         <v>320000</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="99" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="99" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C99" s="5">
         <f t="shared" si="6"/>
         <v>4019</v>
@@ -5622,7 +6218,7 @@
         <v>4</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="F99" s="5">
         <f t="shared" si="7"/>
@@ -5632,13 +6228,13 @@
         <v>380000</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="100" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="100" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C100" s="5">
         <f t="shared" si="6"/>
         <v>4020</v>
@@ -5647,7 +6243,7 @@
         <v>4</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="F100" s="5">
         <f t="shared" si="7"/>
@@ -5657,38 +6253,38 @@
         <v>450000</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="101" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C101" s="5">
-        <f>C100+1</f>
+        <f t="shared" si="6"/>
         <v>4021</v>
       </c>
       <c r="D101" s="5">
         <v>4</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>400</v>
+        <v>291</v>
       </c>
       <c r="F101" s="5">
-        <f>F100+1</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="G101" s="5">
         <v>520000</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>390</v>
+        <v>292</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="102" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="102" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C102" s="5">
         <f t="shared" si="6"/>
         <v>4022</v>
@@ -5697,7 +6293,7 @@
         <v>4</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>401</v>
+        <v>294</v>
       </c>
       <c r="F102" s="5">
         <f t="shared" si="7"/>
@@ -5707,13 +6303,13 @@
         <v>600000</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>391</v>
+        <v>295</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="103" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="103" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C103" s="5">
         <f t="shared" si="6"/>
         <v>4023</v>
@@ -5722,7 +6318,7 @@
         <v>4</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>402</v>
+        <v>297</v>
       </c>
       <c r="F103" s="5">
         <f t="shared" si="7"/>
@@ -5732,13 +6328,13 @@
         <v>680000</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>392</v>
+        <v>298</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="104" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="104" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C104" s="5">
         <f t="shared" si="6"/>
         <v>4024</v>
@@ -5747,7 +6343,7 @@
         <v>4</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>403</v>
+        <v>300</v>
       </c>
       <c r="F104" s="5">
         <f t="shared" si="7"/>
@@ -5757,13 +6353,13 @@
         <v>760000</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>393</v>
+        <v>301</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="105" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C105" s="5">
         <f t="shared" si="6"/>
         <v>4025</v>
@@ -5772,7 +6368,7 @@
         <v>4</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>404</v>
+        <v>303</v>
       </c>
       <c r="F105" s="5">
         <f t="shared" si="7"/>
@@ -5782,13 +6378,13 @@
         <v>850000</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="106" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="106" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C106" s="5">
         <v>5001</v>
       </c>
@@ -5796,7 +6392,7 @@
         <v>5</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="F106" s="5">
         <v>1</v>
@@ -5805,13 +6401,13 @@
         <v>3000</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="107" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="107" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C107" s="5">
         <v>5002</v>
       </c>
@@ -5819,7 +6415,7 @@
         <v>5</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>254</v>
+        <v>309</v>
       </c>
       <c r="F107" s="5">
         <v>2</v>
@@ -5828,13 +6424,13 @@
         <v>6000</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="108" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="108" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C108" s="5">
         <v>5003</v>
       </c>
@@ -5842,7 +6438,7 @@
         <v>5</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="F108" s="5">
         <v>3</v>
@@ -5851,13 +6447,13 @@
         <v>10000</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="109" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="109" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C109" s="5">
         <v>5004</v>
       </c>
@@ -5865,7 +6461,7 @@
         <v>5</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="F109" s="5">
         <v>4</v>
@@ -5874,13 +6470,13 @@
         <v>15000</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="110" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="110" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C110" s="5">
         <v>5005</v>
       </c>
@@ -5888,7 +6484,7 @@
         <v>5</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="F110" s="5">
         <v>5</v>
@@ -5897,13 +6493,13 @@
         <v>22500</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="111" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="111" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C111" s="5">
         <v>5006</v>
       </c>
@@ -5911,7 +6507,7 @@
         <v>5</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="F111" s="5">
         <v>6</v>
@@ -5920,13 +6516,13 @@
         <v>32500</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="112" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="112" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C112" s="5">
         <v>5007</v>
       </c>
@@ -5934,7 +6530,7 @@
         <v>5</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="F112" s="5">
         <v>7</v>
@@ -5943,13 +6539,13 @@
         <v>45000</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="113" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C113" s="5">
         <v>5008</v>
       </c>
@@ -5957,7 +6553,7 @@
         <v>5</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
       <c r="F113" s="5">
         <v>8</v>
@@ -5966,13 +6562,13 @@
         <v>60000</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="114" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="114" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C114" s="5">
         <v>5009</v>
       </c>
@@ -5980,7 +6576,7 @@
         <v>5</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c r="F114" s="5">
         <v>9</v>
@@ -5989,13 +6585,13 @@
         <v>80000</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="115" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C115" s="5">
         <v>5010</v>
       </c>
@@ -6003,7 +6599,7 @@
         <v>5</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="F115" s="5">
         <v>10</v>
@@ -6012,13 +6608,13 @@
         <v>100000</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="116" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="116" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C116" s="5">
         <v>5011</v>
       </c>
@@ -6026,7 +6622,7 @@
         <v>5</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="F116" s="5">
         <v>11</v>
@@ -6035,13 +6631,13 @@
         <v>120000</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="117" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="117" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C117" s="5">
         <v>5012</v>
       </c>
@@ -6049,7 +6645,7 @@
         <v>5</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c r="F117" s="5">
         <v>12</v>
@@ -6058,13 +6654,13 @@
         <v>140000</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="118" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="118" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C118" s="5">
         <v>5013</v>
       </c>
@@ -6072,7 +6668,7 @@
         <v>5</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>287</v>
+        <v>342</v>
       </c>
       <c r="F118" s="5">
         <v>13</v>
@@ -6081,13 +6677,13 @@
         <v>160000</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>288</v>
+        <v>343</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="119" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="119" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C119" s="5">
         <v>5014</v>
       </c>
@@ -6095,7 +6691,7 @@
         <v>5</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="F119" s="5">
         <v>14</v>
@@ -6104,13 +6700,13 @@
         <v>180000</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="120" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="120" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C120" s="5">
         <v>5015</v>
       </c>
@@ -6118,7 +6714,7 @@
         <v>5</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>293</v>
+        <v>348</v>
       </c>
       <c r="F120" s="5">
         <v>15</v>
@@ -6127,13 +6723,13 @@
         <v>200000</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="121" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="121" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C121" s="5">
         <f>C120+1</f>
         <v>5016</v>
@@ -6142,7 +6738,7 @@
         <v>5</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="F121" s="5">
         <f>F120+1</f>
@@ -6152,13 +6748,13 @@
         <v>230000</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>297</v>
+        <v>352</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="122" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="122" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C122" s="5">
         <f t="shared" ref="C122:C130" si="8">C121+1</f>
         <v>5017</v>
@@ -6167,7 +6763,7 @@
         <v>5</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>299</v>
+        <v>354</v>
       </c>
       <c r="F122" s="5">
         <f t="shared" ref="F122:F130" si="9">F121+1</f>
@@ -6177,13 +6773,13 @@
         <v>270000</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="123" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="123" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C123" s="5">
         <f t="shared" si="8"/>
         <v>5018</v>
@@ -6192,7 +6788,7 @@
         <v>5</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>302</v>
+        <v>357</v>
       </c>
       <c r="F123" s="5">
         <f t="shared" si="9"/>
@@ -6202,13 +6798,13 @@
         <v>320000</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>303</v>
+        <v>358</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="124" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="124" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C124" s="5">
         <f t="shared" si="8"/>
         <v>5019</v>
@@ -6217,7 +6813,7 @@
         <v>5</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="F124" s="5">
         <f t="shared" si="9"/>
@@ -6227,13 +6823,13 @@
         <v>380000</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="125" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="125" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C125" s="5">
         <f t="shared" si="8"/>
         <v>5020</v>
@@ -6242,7 +6838,7 @@
         <v>5</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>308</v>
+        <v>363</v>
       </c>
       <c r="F125" s="5">
         <f t="shared" si="9"/>
@@ -6252,38 +6848,38 @@
         <v>450000</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>309</v>
+        <v>364</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="126" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="126" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C126" s="5">
-        <f>C125+1</f>
+        <f t="shared" si="8"/>
         <v>5021</v>
       </c>
       <c r="D126" s="5">
         <v>5</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="F126" s="5">
-        <f>F125+1</f>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="G126" s="5">
         <v>520000</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="127" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="127" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C127" s="5">
         <f t="shared" si="8"/>
         <v>5022</v>
@@ -6292,7 +6888,7 @@
         <v>5</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="F127" s="5">
         <f t="shared" si="9"/>
@@ -6302,13 +6898,13 @@
         <v>600000</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="I127" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="128" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="128" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C128" s="5">
         <f t="shared" si="8"/>
         <v>5023</v>
@@ -6317,7 +6913,7 @@
         <v>5</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="F128" s="5">
         <f t="shared" si="9"/>
@@ -6327,13 +6923,13 @@
         <v>680000</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="129" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="129" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C129" s="5">
         <f t="shared" si="8"/>
         <v>5024</v>
@@ -6342,7 +6938,7 @@
         <v>5</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>418</v>
+        <v>375</v>
       </c>
       <c r="F129" s="5">
         <f t="shared" si="9"/>
@@ -6352,13 +6948,13 @@
         <v>760000</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="130" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="130" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C130" s="5">
         <f t="shared" si="8"/>
         <v>5025</v>
@@ -6367,7 +6963,7 @@
         <v>5</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="F130" s="5">
         <f t="shared" si="9"/>
@@ -6377,13 +6973,13 @@
         <v>850000</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="I130" s="7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="131" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="131" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C131" s="5">
         <v>6001</v>
       </c>
@@ -6391,7 +6987,7 @@
         <v>6</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="F131" s="5">
         <v>1</v>
@@ -6400,14 +6996,14 @@
         <v>3000</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="I131" s="7" t="str">
         <f>"生命上限提升+"&amp;F131&amp;"%,眩晕抵抗概率+"&amp;F131&amp;"%"</f>
         <v>生命上限提升+1%,眩晕抵抗概率+1%</v>
       </c>
     </row>
-    <row r="132" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C132" s="5">
         <v>6002</v>
       </c>
@@ -6415,7 +7011,7 @@
         <v>6</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>312</v>
+        <v>383</v>
       </c>
       <c r="F132" s="5">
         <v>2</v>
@@ -6424,14 +7020,14 @@
         <v>6000</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>332</v>
+        <v>384</v>
       </c>
       <c r="I132" s="7" t="str">
         <f t="shared" ref="I132:I150" si="10">"生命上限提升+"&amp;F132&amp;"%,眩晕抵抗概率+"&amp;F132&amp;"%"</f>
         <v>生命上限提升+2%,眩晕抵抗概率+2%</v>
       </c>
     </row>
-    <row r="133" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C133" s="5">
         <v>6003</v>
       </c>
@@ -6439,7 +7035,7 @@
         <v>6</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>313</v>
+        <v>385</v>
       </c>
       <c r="F133" s="5">
         <v>3</v>
@@ -6448,14 +7044,14 @@
         <v>10000</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>333</v>
+        <v>386</v>
       </c>
       <c r="I133" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+3%,眩晕抵抗概率+3%</v>
       </c>
     </row>
-    <row r="134" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C134" s="5">
         <v>6004</v>
       </c>
@@ -6463,7 +7059,7 @@
         <v>6</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>314</v>
+        <v>387</v>
       </c>
       <c r="F134" s="5">
         <v>4</v>
@@ -6472,14 +7068,14 @@
         <v>15000</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="I134" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+4%,眩晕抵抗概率+4%</v>
       </c>
     </row>
-    <row r="135" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C135" s="5">
         <v>6005</v>
       </c>
@@ -6487,7 +7083,7 @@
         <v>6</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="F135" s="5">
         <v>5</v>
@@ -6496,14 +7092,14 @@
         <v>22500</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>335</v>
+        <v>390</v>
       </c>
       <c r="I135" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+5%,眩晕抵抗概率+5%</v>
       </c>
     </row>
-    <row r="136" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C136" s="5">
         <v>6006</v>
       </c>
@@ -6511,7 +7107,7 @@
         <v>6</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>316</v>
+        <v>391</v>
       </c>
       <c r="F136" s="5">
         <v>6</v>
@@ -6520,14 +7116,14 @@
         <v>32500</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="I136" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+6%,眩晕抵抗概率+6%</v>
       </c>
     </row>
-    <row r="137" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C137" s="5">
         <v>6007</v>
       </c>
@@ -6535,7 +7131,7 @@
         <v>6</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>317</v>
+        <v>393</v>
       </c>
       <c r="F137" s="5">
         <v>7</v>
@@ -6544,14 +7140,14 @@
         <v>45000</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="I137" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+7%,眩晕抵抗概率+7%</v>
       </c>
     </row>
-    <row r="138" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C138" s="5">
         <v>6008</v>
       </c>
@@ -6559,7 +7155,7 @@
         <v>6</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>318</v>
+        <v>395</v>
       </c>
       <c r="F138" s="5">
         <v>8</v>
@@ -6568,14 +7164,14 @@
         <v>60000</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
       <c r="I138" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+8%,眩晕抵抗概率+8%</v>
       </c>
     </row>
-    <row r="139" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C139" s="5">
         <v>6009</v>
       </c>
@@ -6583,7 +7179,7 @@
         <v>6</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>319</v>
+        <v>397</v>
       </c>
       <c r="F139" s="5">
         <v>9</v>
@@ -6592,14 +7188,14 @@
         <v>80000</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>339</v>
+        <v>398</v>
       </c>
       <c r="I139" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+9%,眩晕抵抗概率+9%</v>
       </c>
     </row>
-    <row r="140" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C140" s="5">
         <v>6010</v>
       </c>
@@ -6607,7 +7203,7 @@
         <v>6</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="F140" s="5">
         <v>10</v>
@@ -6616,14 +7212,14 @@
         <v>100000</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="I140" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+10%,眩晕抵抗概率+10%</v>
       </c>
     </row>
-    <row r="141" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C141" s="5">
         <v>6011</v>
       </c>
@@ -6631,7 +7227,7 @@
         <v>6</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>321</v>
+        <v>401</v>
       </c>
       <c r="F141" s="5">
         <v>11</v>
@@ -6640,14 +7236,14 @@
         <v>120000</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="I141" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+11%,眩晕抵抗概率+11%</v>
       </c>
     </row>
-    <row r="142" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C142" s="5">
         <v>6012</v>
       </c>
@@ -6655,7 +7251,7 @@
         <v>6</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="F142" s="5">
         <v>12</v>
@@ -6664,14 +7260,14 @@
         <v>140000</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>342</v>
+        <v>404</v>
       </c>
       <c r="I142" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+12%,眩晕抵抗概率+12%</v>
       </c>
     </row>
-    <row r="143" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C143" s="5">
         <v>6013</v>
       </c>
@@ -6679,7 +7275,7 @@
         <v>6</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>323</v>
+        <v>405</v>
       </c>
       <c r="F143" s="5">
         <v>13</v>
@@ -6688,14 +7284,14 @@
         <v>160000</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>343</v>
+        <v>406</v>
       </c>
       <c r="I143" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+13%,眩晕抵抗概率+13%</v>
       </c>
     </row>
-    <row r="144" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C144" s="5">
         <v>6014</v>
       </c>
@@ -6703,7 +7299,7 @@
         <v>6</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>324</v>
+        <v>407</v>
       </c>
       <c r="F144" s="5">
         <v>14</v>
@@ -6712,14 +7308,14 @@
         <v>180000</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>344</v>
+        <v>408</v>
       </c>
       <c r="I144" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+14%,眩晕抵抗概率+14%</v>
       </c>
     </row>
-    <row r="145" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C145" s="5">
         <v>6015</v>
       </c>
@@ -6727,7 +7323,7 @@
         <v>6</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>325</v>
+        <v>409</v>
       </c>
       <c r="F145" s="5">
         <v>15</v>
@@ -6736,14 +7332,14 @@
         <v>200000</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>345</v>
+        <v>410</v>
       </c>
       <c r="I145" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+15%,眩晕抵抗概率+15%</v>
       </c>
     </row>
-    <row r="146" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" ht="20.1" customHeight="1" spans="3:13">
       <c r="C146" s="5">
         <f>C145+1</f>
         <v>6016</v>
@@ -6752,7 +7348,7 @@
         <v>6</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>326</v>
+        <v>411</v>
       </c>
       <c r="F146" s="5">
         <f>F145+1</f>
@@ -6762,7 +7358,7 @@
         <v>230000</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="I146" s="7" t="str">
         <f t="shared" si="10"/>
@@ -6772,7 +7368,7 @@
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
     </row>
-    <row r="147" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" ht="20.1" customHeight="1" spans="3:13">
       <c r="C147" s="5">
         <f t="shared" ref="C147:C155" si="11">C146+1</f>
         <v>6017</v>
@@ -6781,7 +7377,7 @@
         <v>6</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>327</v>
+        <v>413</v>
       </c>
       <c r="F147" s="5">
         <f t="shared" ref="F147:F155" si="12">F146+1</f>
@@ -6791,7 +7387,7 @@
         <v>270000</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>347</v>
+        <v>414</v>
       </c>
       <c r="I147" s="7" t="str">
         <f t="shared" si="10"/>
@@ -6801,7 +7397,7 @@
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
     </row>
-    <row r="148" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" ht="20.1" customHeight="1" spans="3:13">
       <c r="C148" s="5">
         <f t="shared" si="11"/>
         <v>6018</v>
@@ -6810,7 +7406,7 @@
         <v>6</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>328</v>
+        <v>415</v>
       </c>
       <c r="F148" s="5">
         <f t="shared" si="12"/>
@@ -6820,7 +7416,7 @@
         <v>320000</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>348</v>
+        <v>416</v>
       </c>
       <c r="I148" s="7" t="str">
         <f t="shared" si="10"/>
@@ -6830,7 +7426,7 @@
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
     </row>
-    <row r="149" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" ht="20.1" customHeight="1" spans="3:13">
       <c r="C149" s="5">
         <f t="shared" si="11"/>
         <v>6019</v>
@@ -6839,7 +7435,7 @@
         <v>6</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>329</v>
+        <v>417</v>
       </c>
       <c r="F149" s="5">
         <f t="shared" si="12"/>
@@ -6849,7 +7445,7 @@
         <v>380000</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>349</v>
+        <v>418</v>
       </c>
       <c r="I149" s="7" t="str">
         <f t="shared" si="10"/>
@@ -6859,7 +7455,7 @@
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
     </row>
-    <row r="150" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" ht="20.1" customHeight="1" spans="3:13">
       <c r="C150" s="5">
         <f t="shared" si="11"/>
         <v>6020</v>
@@ -6868,7 +7464,7 @@
         <v>6</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="F150" s="5">
         <f t="shared" si="12"/>
@@ -6878,7 +7474,7 @@
         <v>450000</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="I150" s="7" t="str">
         <f t="shared" si="10"/>
@@ -6888,7 +7484,7 @@
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
     </row>
-    <row r="151" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" ht="20.1" customHeight="1" spans="3:9">
       <c r="C151" s="5">
         <f t="shared" si="11"/>
         <v>6021</v>
@@ -6897,7 +7493,7 @@
         <v>6</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F151" s="5">
         <f t="shared" si="12"/>
@@ -6907,14 +7503,14 @@
         <v>520000</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="I151" s="5" t="str">
-        <f t="shared" ref="I151:I155" si="13">"生命上限提升+"&amp;F151&amp;"%,眩晕抵抗概率+"&amp;F151&amp;"%"</f>
+        <f t="shared" ref="I151:I180" si="13">"生命上限提升+"&amp;F151&amp;"%,眩晕抵抗概率+"&amp;F151&amp;"%"</f>
         <v>生命上限提升+21%,眩晕抵抗概率+21%</v>
       </c>
     </row>
-    <row r="152" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" ht="20.1" customHeight="1" spans="3:9">
       <c r="C152" s="5">
         <f t="shared" si="11"/>
         <v>6022</v>
@@ -6923,7 +7519,7 @@
         <v>6</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F152" s="5">
         <f t="shared" si="12"/>
@@ -6933,14 +7529,14 @@
         <v>600000</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="I152" s="5" t="str">
         <f t="shared" si="13"/>
         <v>生命上限提升+22%,眩晕抵抗概率+22%</v>
       </c>
     </row>
-    <row r="153" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" ht="20.1" customHeight="1" spans="3:9">
       <c r="C153" s="5">
         <f t="shared" si="11"/>
         <v>6023</v>
@@ -6949,7 +7545,7 @@
         <v>6</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F153" s="5">
         <f t="shared" si="12"/>
@@ -6959,14 +7555,14 @@
         <v>680000</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I153" s="5" t="str">
         <f t="shared" si="13"/>
         <v>生命上限提升+23%,眩晕抵抗概率+23%</v>
       </c>
     </row>
-    <row r="154" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" ht="20.1" customHeight="1" spans="3:9">
       <c r="C154" s="5">
         <f t="shared" si="11"/>
         <v>6024</v>
@@ -6975,7 +7571,7 @@
         <v>6</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="F154" s="5">
         <f t="shared" si="12"/>
@@ -6985,14 +7581,14 @@
         <v>760000</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I154" s="5" t="str">
         <f t="shared" si="13"/>
         <v>生命上限提升+24%,眩晕抵抗概率+24%</v>
       </c>
     </row>
-    <row r="155" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" ht="20.1" customHeight="1" spans="3:9">
       <c r="C155" s="5">
         <f t="shared" si="11"/>
         <v>6025</v>
@@ -7001,7 +7597,7 @@
         <v>6</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F155" s="5">
         <f t="shared" si="12"/>
@@ -7011,20 +7607,645 @@
         <v>850000</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="I155" s="5" t="str">
         <f t="shared" si="13"/>
         <v>生命上限提升+25%,眩晕抵抗概率+25%</v>
       </c>
     </row>
+    <row r="156" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C156" s="5">
+        <v>7001</v>
+      </c>
+      <c r="D156" s="5">
+        <v>7</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F156" s="5">
+        <v>1</v>
+      </c>
+      <c r="G156" s="5">
+        <v>3000</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="I156" s="7" t="str">
+        <f>"生命上限提升+"&amp;F156&amp;"%,眩晕抵抗概率+"&amp;F156&amp;"%"</f>
+        <v>生命上限提升+1%,眩晕抵抗概率+1%</v>
+      </c>
+    </row>
+    <row r="157" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C157" s="5">
+        <v>7002</v>
+      </c>
+      <c r="D157" s="5">
+        <v>7</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="F157" s="5">
+        <v>2</v>
+      </c>
+      <c r="G157" s="5">
+        <v>6000</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I157" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+2%,眩晕抵抗概率+2%</v>
+      </c>
+    </row>
+    <row r="158" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C158" s="5">
+        <v>7003</v>
+      </c>
+      <c r="D158" s="5">
+        <v>7</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F158" s="5">
+        <v>3</v>
+      </c>
+      <c r="G158" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="I158" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+3%,眩晕抵抗概率+3%</v>
+      </c>
+    </row>
+    <row r="159" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C159" s="5">
+        <v>7004</v>
+      </c>
+      <c r="D159" s="5">
+        <v>7</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F159" s="5">
+        <v>4</v>
+      </c>
+      <c r="G159" s="5">
+        <v>15000</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="I159" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+4%,眩晕抵抗概率+4%</v>
+      </c>
+    </row>
+    <row r="160" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C160" s="5">
+        <v>7005</v>
+      </c>
+      <c r="D160" s="5">
+        <v>7</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F160" s="5">
+        <v>5</v>
+      </c>
+      <c r="G160" s="5">
+        <v>22500</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="I160" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+5%,眩晕抵抗概率+5%</v>
+      </c>
+    </row>
+    <row r="161" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C161" s="5">
+        <v>7006</v>
+      </c>
+      <c r="D161" s="5">
+        <v>7</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="F161" s="5">
+        <v>6</v>
+      </c>
+      <c r="G161" s="5">
+        <v>32500</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="I161" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+6%,眩晕抵抗概率+6%</v>
+      </c>
+    </row>
+    <row r="162" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C162" s="5">
+        <v>7007</v>
+      </c>
+      <c r="D162" s="5">
+        <v>7</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F162" s="5">
+        <v>7</v>
+      </c>
+      <c r="G162" s="5">
+        <v>45000</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="I162" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+7%,眩晕抵抗概率+7%</v>
+      </c>
+    </row>
+    <row r="163" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C163" s="5">
+        <v>7008</v>
+      </c>
+      <c r="D163" s="5">
+        <v>7</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F163" s="5">
+        <v>8</v>
+      </c>
+      <c r="G163" s="5">
+        <v>60000</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I163" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+8%,眩晕抵抗概率+8%</v>
+      </c>
+    </row>
+    <row r="164" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C164" s="5">
+        <v>7009</v>
+      </c>
+      <c r="D164" s="5">
+        <v>7</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F164" s="5">
+        <v>9</v>
+      </c>
+      <c r="G164" s="5">
+        <v>80000</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="I164" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+9%,眩晕抵抗概率+9%</v>
+      </c>
+    </row>
+    <row r="165" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C165" s="5">
+        <v>7010</v>
+      </c>
+      <c r="D165" s="5">
+        <v>7</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F165" s="5">
+        <v>10</v>
+      </c>
+      <c r="G165" s="5">
+        <v>100000</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="I165" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+10%,眩晕抵抗概率+10%</v>
+      </c>
+    </row>
+    <row r="166" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C166" s="5">
+        <v>7011</v>
+      </c>
+      <c r="D166" s="5">
+        <v>7</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F166" s="5">
+        <v>11</v>
+      </c>
+      <c r="G166" s="5">
+        <v>120000</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="I166" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+11%,眩晕抵抗概率+11%</v>
+      </c>
+    </row>
+    <row r="167" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+      <c r="C167" s="5">
+        <v>7012</v>
+      </c>
+      <c r="D167" s="5">
+        <v>7</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F167" s="5">
+        <v>12</v>
+      </c>
+      <c r="G167" s="5">
+        <v>140000</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I167" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+12%,眩晕抵抗概率+12%</v>
+      </c>
+    </row>
+    <row r="168" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C168" s="5">
+        <v>7013</v>
+      </c>
+      <c r="D168" s="5">
+        <v>7</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="F168" s="5">
+        <v>13</v>
+      </c>
+      <c r="G168" s="5">
+        <v>160000</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="I168" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+13%,眩晕抵抗概率+13%</v>
+      </c>
+    </row>
+    <row r="169" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C169" s="5">
+        <v>7014</v>
+      </c>
+      <c r="D169" s="5">
+        <v>7</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F169" s="5">
+        <v>14</v>
+      </c>
+      <c r="G169" s="5">
+        <v>180000</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I169" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+14%,眩晕抵抗概率+14%</v>
+      </c>
+    </row>
+    <row r="170" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C170" s="5">
+        <v>7015</v>
+      </c>
+      <c r="D170" s="5">
+        <v>7</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="F170" s="5">
+        <v>15</v>
+      </c>
+      <c r="G170" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I170" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+15%,眩晕抵抗概率+15%</v>
+      </c>
+    </row>
+    <row r="171" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C171" s="5">
+        <v>7016</v>
+      </c>
+      <c r="D171" s="5">
+        <v>7</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="F171" s="5">
+        <f t="shared" ref="F171:F180" si="14">F170+1</f>
+        <v>16</v>
+      </c>
+      <c r="G171" s="5">
+        <v>230000</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="I171" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+16%,眩晕抵抗概率+16%</v>
+      </c>
+      <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+    </row>
+    <row r="172" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C172" s="5">
+        <v>7017</v>
+      </c>
+      <c r="D172" s="5">
+        <v>7</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F172" s="5">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="G172" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="I172" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+17%,眩晕抵抗概率+17%</v>
+      </c>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
+    </row>
+    <row r="173" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C173" s="5">
+        <v>7018</v>
+      </c>
+      <c r="D173" s="5">
+        <v>7</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="F173" s="5">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="G173" s="5">
+        <v>320000</v>
+      </c>
+      <c r="H173" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="I173" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+18%,眩晕抵抗概率+18%</v>
+      </c>
+      <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
+      <c r="M173" s="2"/>
+    </row>
+    <row r="174" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C174" s="5">
+        <v>7019</v>
+      </c>
+      <c r="D174" s="5">
+        <v>7</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F174" s="5">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="G174" s="5">
+        <v>380000</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I174" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+19%,眩晕抵抗概率+19%</v>
+      </c>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+    </row>
+    <row r="175" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C175" s="5">
+        <v>7020</v>
+      </c>
+      <c r="D175" s="5">
+        <v>7</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="F175" s="5">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="G175" s="5">
+        <v>450000</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="I175" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+20%,眩晕抵抗概率+20%</v>
+      </c>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
+    </row>
+    <row r="176" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C176" s="5">
+        <v>7021</v>
+      </c>
+      <c r="D176" s="5">
+        <v>7</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F176" s="5">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="G176" s="5">
+        <v>520000</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="I176" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+21%,眩晕抵抗概率+21%</v>
+      </c>
+    </row>
+    <row r="177" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C177" s="5">
+        <v>7022</v>
+      </c>
+      <c r="D177" s="5">
+        <v>7</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="F177" s="5">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="G177" s="5">
+        <v>600000</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="I177" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+22%,眩晕抵抗概率+22%</v>
+      </c>
+    </row>
+    <row r="178" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C178" s="5">
+        <v>7023</v>
+      </c>
+      <c r="D178" s="5">
+        <v>7</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F178" s="5">
+        <f t="shared" si="14"/>
+        <v>23</v>
+      </c>
+      <c r="G178" s="5">
+        <v>680000</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="I178" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+23%,眩晕抵抗概率+23%</v>
+      </c>
+    </row>
+    <row r="179" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C179" s="5">
+        <v>7024</v>
+      </c>
+      <c r="D179" s="5">
+        <v>7</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F179" s="5">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="G179" s="5">
+        <v>760000</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="I179" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+24%,眩晕抵抗概率+24%</v>
+      </c>
+    </row>
+    <row r="180" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C180" s="5">
+        <v>7025</v>
+      </c>
+      <c r="D180" s="5">
+        <v>7</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="F180" s="5">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="G180" s="5">
+        <v>850000</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="I180" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+25%,眩晕抵抗概率+25%</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
